--- a/src/test/resources/Login Credential.xlsx
+++ b/src/test/resources/Login Credential.xlsx
@@ -3,19 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\madhubs\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="8580" windowHeight="2670" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10545" windowHeight="2325" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
   <si>
     <t>bsmbills123</t>
   </si>
@@ -55,6 +51,9 @@
   </si>
   <si>
     <t>second</t>
+  </si>
+  <si>
+    <t>bsmbills123@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -445,7 +444,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -467,7 +466,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>6</v>
